--- a/biology/Zoologie/Ibeidi/Ibeidi.xlsx
+++ b/biology/Zoologie/Ibeidi/Ibeidi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Ibeidi est une race de mouton à queue grasse originaire d’Égypte élevé pour sa viande et sa laine. Il est parfois nommé Ebeidi, Abidi ou Ibidi[1].
+L'Ibeidi est une race de mouton à queue grasse originaire d’Égypte élevé pour sa viande et sa laine. Il est parfois nommé Ebeidi, Abidi ou Ibidi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ibeidi est une race de mouton égyptienne officiellement reconnue et identifiée en 2002[2]. On ne le trouve qu'autour du village de Beni-Ibedi qui se trouve près de El Minya en Haute-Égypte[3]. Il ressemble à l'Ossimi, une autre race égyptienne que l'on trouve en Basse-Égypte[1]. Issu de croisement, il pourrait descendre de l'Ossimi[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ibeidi est une race de mouton égyptienne officiellement reconnue et identifiée en 2002. On ne le trouve qu'autour du village de Beni-Ibedi qui se trouve près de El Minya en Haute-Égypte. Il ressemble à l'Ossimi, une autre race égyptienne que l'on trouve en Basse-Égypte. Issu de croisement, il pourrait descendre de l'Ossimi,.
 Ce mouton est blanc avec la tête brune ; il peut parfois être noir mais c'est rare. Il pèse jusqu'à 60 kg. Seul le bélier porte des cornes bien que certaines brebis peuvent présenter de petites cornes.
 </t>
         </is>
